--- a/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>29,527.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31,567.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32,389.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30,531.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>31,811.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30,531.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32,389.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31,567.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>29,527.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>32389</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>29527</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>31165</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>29,527.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31,567.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32,389.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30,531.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>31,811.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30,531.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32,389.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>31,567.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29,527.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>32389</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>29527</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>31165</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>14,914.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15,873.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16,395.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15,581.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>16,353.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15,581.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16,395.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15,873.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14,914.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>16395</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>14914</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>15823.2</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>643.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>682.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>713.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>714.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>746.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>714.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>713.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>682.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>643.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>746</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>643</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>699.6</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>7,682.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7,751.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,122.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7,002.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>7,524.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7,002.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8,122.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7,751.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7,682.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8122</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>7002</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>7616.2</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>6,288.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7,261.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7,159.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7,234.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>7,188.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7,234.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7,159.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7,261.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6,288.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>7261</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>6288</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>7026</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>648.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,267.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,177.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,001.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>766.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,177.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,267.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>648.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1267</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>971.8</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>6,936.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8,528.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8,336.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8,000.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>8,189.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8,000.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8,336.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8,528.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6,936.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>8528</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>6936</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>7997.8</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>43.00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>43.00</t>
         </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>40.2</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>6,902.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8,488.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,295.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7,957.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>8,146.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7,957.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8,295.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8,488.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6,902.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>8488</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>6902</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>7957.6</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>6,902.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8,488.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8,295.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7,957.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>8,146.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>7,957.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8,295.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8,488.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6,902.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>8488</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>6902</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>7957.6</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,001.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,235.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,085.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,053.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,190.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,053.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,085.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,235.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,001.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2235</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2112.8</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>4,901.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,253.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6,210.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5,904.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>5,956.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5,904.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6,210.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6,253.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4,901.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>6253</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>4901</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>5844.8</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>4,901.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6,253.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6,210.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,904.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>5,956.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5,904.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6,210.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6,253.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4,901.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>6253</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>4901</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>5844.8</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,104.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,104.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,091.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,074.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,075.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,074.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,091.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,104.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,104.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2104</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2074</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2089.6</v>
       </c>
     </row>
     <row r="19">
@@ -1132,32 +974,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>65,671.00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>65671</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>65671</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>65671</v>
       </c>
     </row>
     <row r="20"/>
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>14.36</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>11.65</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>13.968</v>
       </c>
     </row>
     <row r="23">
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>14.34</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>14.76</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>14.85</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>13.956</v>
       </c>
     </row>
     <row r="24"/>
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>14.36</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>11.65</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>13.968</v>
       </c>
     </row>
     <row r="27">
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>14.34</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14.76</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>13.956</v>
       </c>
     </row>
     <row r="28"/>
